--- a/qualitative_analysis/dls/data/cp_features_and_description.xlsx
+++ b/qualitative_analysis/dls/data/cp_features_and_description.xlsx
@@ -805,7 +805,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Образец 8 после диализа 7 дней, H2O, стакан 1 л, замена воды каждые 2 дня</t>
+          <t>Образец 8 после диализа 7 дней, H2O, стакан 1 л, замена воды каждые 2 дня (3.5 кДа)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Образец 8 после диализа 7 дней, H2O, стакан 1 л, замена воды каждые 2 дня</t>
+          <t>Образец 8 после диализа 7 дней, H2O, стакан 1 л, замена воды каждые 2 дня (0.5 кДа)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Образец 8 после диализа 3.5 кДа, конд. 7 дней в H2O</t>
+          <t>Образец 8 после диализа, конд. 7 дней в H2O (14.0 кДа)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Образец 11 после диализа 2 дня, H2O, 1 кДа</t>
+          <t>Образец 11 после диализа 2 дня, H2O (1.0 кДа)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Образец 11 после диализа 5 дней, H2O, 14 кДа 75 мм</t>
+          <t>Образец 11 после диализа 5 дней, H2O, 75 мм (3.5 кДа)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
